--- a/黑色/铁矿/eta/日均铁水产量超季节性3年_月度数据.xlsx
+++ b/黑色/铁矿/eta/日均铁水产量超季节性3年_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.9</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5">
